--- a/network_analysis_sandbox/data/edges_tech.xlsx
+++ b/network_analysis_sandbox/data/edges_tech.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -374,7 +374,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -390,7 +390,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
@@ -406,23 +406,23 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>46</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8">
-        <v>39</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -430,71 +430,71 @@
         <v>6</v>
       </c>
       <c r="B9">
-        <v>64</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="B10">
-        <v>65</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="B11">
-        <v>66</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="B12">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="B13">
-        <v>39</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="B15">
-        <v>44</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B17">
-        <v>68</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -502,12 +502,12 @@
         <v>11</v>
       </c>
       <c r="B18">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="B19">
         <v>46</v>
@@ -515,274 +515,466 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="B20">
-        <v>32</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B22">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="B23">
-        <v>6</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B24">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="B25">
-        <v>11</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="B26">
-        <v>50</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="B27">
-        <v>69</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="B28">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="B29">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="B30">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="B31">
-        <v>54</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="B32">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="B33">
-        <v>52</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B34">
-        <v>52</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B35">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B36">
-        <v>53</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="B37">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B38">
-        <v>71</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B39">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B40">
-        <v>53</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B41">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B42">
-        <v>58</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B43">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B44">
-        <v>46</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B45">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="B46">
-        <v>27</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="B47">
-        <v>73</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B48">
-        <v>27</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B49">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B50">
-        <v>60</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B51">
-        <v>74</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B52">
-        <v>53</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
+        <v>26</v>
+      </c>
+      <c r="B53">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>26</v>
+      </c>
+      <c r="B54">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>27</v>
+      </c>
+      <c r="B55">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>28</v>
+      </c>
+      <c r="B56">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>28</v>
+      </c>
+      <c r="B57">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>28</v>
+      </c>
+      <c r="B58">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
         <v>29</v>
       </c>
-      <c r="B53">
-        <v>75</v>
+      <c r="B59">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>29</v>
+      </c>
+      <c r="B60">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>52</v>
+      </c>
+      <c r="B61">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>52</v>
+      </c>
+      <c r="B62">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>30</v>
+      </c>
+      <c r="B63">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>30</v>
+      </c>
+      <c r="B64">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>30</v>
+      </c>
+      <c r="B65">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>31</v>
+      </c>
+      <c r="B66">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>31</v>
+      </c>
+      <c r="B67">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>31</v>
+      </c>
+      <c r="B68">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>32</v>
+      </c>
+      <c r="B69">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>32</v>
+      </c>
+      <c r="B70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>32</v>
+      </c>
+      <c r="B71">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>33</v>
+      </c>
+      <c r="B72">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>33</v>
+      </c>
+      <c r="B73">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>33</v>
+      </c>
+      <c r="B74">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>34</v>
+      </c>
+      <c r="B75">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>34</v>
+      </c>
+      <c r="B76">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>34</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/network_analysis_sandbox/data/edges_tech.xlsx
+++ b/network_analysis_sandbox/data/edges_tech.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B77"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,12 +360,12 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>from</t>
+          <t>number.name</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>to</t>
+          <t>number.to</t>
         </is>
       </c>
     </row>
@@ -374,7 +374,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -382,7 +382,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -390,36 +390,36 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -427,553 +427,201 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9">
-        <v>39</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B10">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B11">
-        <v>44</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>71</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>72</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>73</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>67</v>
+        <v>6</v>
       </c>
       <c r="B15">
-        <v>74</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B18">
-        <v>48</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>46</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B20">
-        <v>75</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="B21">
-        <v>50</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="B22">
-        <v>57</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="B23">
-        <v>37</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B24">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>69</v>
+        <v>8</v>
       </c>
       <c r="B25">
-        <v>51</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>69</v>
+        <v>8</v>
       </c>
       <c r="B26">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>69</v>
+        <v>8</v>
       </c>
       <c r="B27">
-        <v>44</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="B28">
-        <v>60</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="B29">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="B30">
-        <v>54</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="B31">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="B32">
-        <v>32</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="B33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34">
-        <v>13</v>
-      </c>
-      <c r="B34">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35">
-        <v>13</v>
-      </c>
-      <c r="B35">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36">
-        <v>13</v>
-      </c>
-      <c r="B36">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37">
-        <v>70</v>
-      </c>
-      <c r="B37">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38">
-        <v>15</v>
-      </c>
-      <c r="B38">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39">
-        <v>16</v>
-      </c>
-      <c r="B39">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40">
-        <v>17</v>
-      </c>
-      <c r="B40">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41">
-        <v>17</v>
-      </c>
-      <c r="B41">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42">
-        <v>18</v>
-      </c>
-      <c r="B42">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43">
-        <v>18</v>
-      </c>
-      <c r="B43">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44">
-        <v>18</v>
-      </c>
-      <c r="B44">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45">
-        <v>19</v>
-      </c>
-      <c r="B45">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46">
-        <v>20</v>
-      </c>
-      <c r="B46">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47">
-        <v>20</v>
-      </c>
-      <c r="B47">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48">
-        <v>21</v>
-      </c>
-      <c r="B48">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49">
-        <v>22</v>
-      </c>
-      <c r="B49">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50">
-        <v>23</v>
-      </c>
-      <c r="B50">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51">
-        <v>23</v>
-      </c>
-      <c r="B51">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52">
-        <v>25</v>
-      </c>
-      <c r="B52">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53">
-        <v>26</v>
-      </c>
-      <c r="B53">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54">
-        <v>26</v>
-      </c>
-      <c r="B54">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55">
-        <v>27</v>
-      </c>
-      <c r="B55">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56">
-        <v>28</v>
-      </c>
-      <c r="B56">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57">
-        <v>28</v>
-      </c>
-      <c r="B57">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58">
-        <v>28</v>
-      </c>
-      <c r="B58">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59">
-        <v>29</v>
-      </c>
-      <c r="B59">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60">
-        <v>29</v>
-      </c>
-      <c r="B60">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61">
-        <v>52</v>
-      </c>
-      <c r="B61">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62">
-        <v>52</v>
-      </c>
-      <c r="B62">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63">
-        <v>30</v>
-      </c>
-      <c r="B63">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64">
-        <v>30</v>
-      </c>
-      <c r="B64">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65">
-        <v>30</v>
-      </c>
-      <c r="B65">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66">
-        <v>31</v>
-      </c>
-      <c r="B66">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67">
-        <v>31</v>
-      </c>
-      <c r="B67">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68">
-        <v>31</v>
-      </c>
-      <c r="B68">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69">
-        <v>32</v>
-      </c>
-      <c r="B69">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70">
-        <v>32</v>
-      </c>
-      <c r="B70">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71">
-        <v>32</v>
-      </c>
-      <c r="B71">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72">
-        <v>33</v>
-      </c>
-      <c r="B72">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73">
-        <v>33</v>
-      </c>
-      <c r="B73">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74">
-        <v>33</v>
-      </c>
-      <c r="B74">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75">
-        <v>34</v>
-      </c>
-      <c r="B75">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76">
-        <v>34</v>
-      </c>
-      <c r="B76">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77">
-        <v>34</v>
-      </c>
-      <c r="B77">
         <v>1</v>
       </c>
     </row>
